--- a/public/gamekpi.xlsx
+++ b/public/gamekpi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\Desafio Excelencia\desafio-excelencia\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB694C2-0B98-4F66-99CD-95F51EF54968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5673B3-CC3F-4800-BFE3-98B9463DCAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E98F70-F2BD-4803-AD90-387C3126D71E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="55">
   <si>
     <t>CPN</t>
   </si>
@@ -187,6 +187,24 @@
   </si>
   <si>
     <t>Reberthe Regis de Sousa Martins</t>
+  </si>
+  <si>
+    <t>FLN</t>
+  </si>
+  <si>
+    <t>BAU</t>
+  </si>
+  <si>
+    <t>SOR</t>
+  </si>
+  <si>
+    <t>JVL</t>
+  </si>
+  <si>
+    <t>SMA</t>
+  </si>
+  <si>
+    <t>RIP</t>
   </si>
 </sst>
 </file>
@@ -372,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -434,6 +452,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -883,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69D33A2-B1E2-48C9-912C-4FE4D29EFFE1}">
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,7 +1002,7 @@
         <v>27</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="O2" s="2">
         <v>47</v>
@@ -1023,7 +1044,7 @@
         <v>36</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O3" s="2">
         <v>37</v>
@@ -1064,7 +1085,7 @@
         <v>22</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="O4" s="2">
         <v>16</v>
@@ -1105,7 +1126,7 @@
         <v>16</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="O5" s="2">
         <v>10</v>
@@ -1146,7 +1167,7 @@
         <v>8</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="O6" s="2">
         <v>9</v>
@@ -1187,7 +1208,7 @@
         <v>11</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="O7" s="2">
         <v>2</v>
@@ -1306,7 +1327,7 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="22" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="16">
@@ -1322,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="17">
-        <f t="shared" ref="K12:K29" si="0">SUM(G12:J12)</f>
+        <f t="shared" ref="K12:K26" si="0">SUM(G12:J12)</f>
         <v>53</v>
       </c>
     </row>
@@ -1339,8 +1360,8 @@
       <c r="D13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>17</v>
+      <c r="F13" s="22" t="s">
+        <v>1</v>
       </c>
       <c r="G13" s="16">
         <v>7</v>
@@ -1373,8 +1394,8 @@
       <c r="D14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>9</v>
+      <c r="F14" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="G14" s="16">
         <v>3</v>
@@ -1406,8 +1427,8 @@
       <c r="D15" s="2">
         <v>0</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>13</v>
+      <c r="F15" s="22" t="s">
+        <v>14</v>
       </c>
       <c r="G15" s="16">
         <v>26</v>
@@ -1439,8 +1460,8 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>11</v>
+      <c r="F16" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="G16" s="16">
         <v>1</v>
@@ -1472,8 +1493,8 @@
       <c r="D17" s="2">
         <v>0</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>13</v>
+      <c r="F17" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="G17" s="16">
         <v>1</v>
@@ -1505,8 +1526,8 @@
       <c r="D18" s="2">
         <v>0</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>10</v>
+      <c r="F18" s="22" t="s">
+        <v>9</v>
       </c>
       <c r="G18" s="16">
         <v>3</v>
@@ -1538,8 +1559,8 @@
       <c r="D19" s="2">
         <v>0</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>15</v>
+      <c r="F19" s="22" t="s">
+        <v>10</v>
       </c>
       <c r="G19" s="16">
         <v>1</v>
@@ -1571,8 +1592,8 @@
       <c r="D20" s="2">
         <v>0</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>15</v>
+      <c r="F20" s="22" t="s">
+        <v>11</v>
       </c>
       <c r="G20" s="16">
         <v>9</v>
@@ -1604,8 +1625,8 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>9</v>
+      <c r="F21" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="G21" s="16">
         <v>2</v>
@@ -1637,8 +1658,8 @@
       <c r="D22" s="2">
         <v>0</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>1</v>
+      <c r="F22" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="G22" s="16">
         <v>9</v>
@@ -1663,8 +1684,8 @@
       <c r="D23" s="2">
         <v>0</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>10</v>
+      <c r="F23" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="G23" s="16">
         <v>1</v>
@@ -1690,8 +1711,8 @@
       <c r="D24" s="2">
         <v>0</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>11</v>
+      <c r="F24" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="G24" s="16">
         <v>1</v>
@@ -1716,8 +1737,8 @@
       <c r="D25" s="2">
         <v>0</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>12</v>
+      <c r="F25" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="G25" s="16">
         <v>7</v>
@@ -1741,8 +1762,8 @@
       <c r="D26" s="2">
         <v>0</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>14</v>
+      <c r="F26" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="G26" s="16">
         <v>3</v>
@@ -1767,8 +1788,8 @@
       <c r="D27" s="2">
         <v>0</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>16</v>
+      <c r="F27" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="16">
@@ -1790,8 +1811,8 @@
       <c r="D28" s="2">
         <v>0</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>17</v>
+      <c r="F28" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="6">
@@ -1813,8 +1834,8 @@
       <c r="D29" s="2">
         <v>0</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>18</v>
+      <c r="F29" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="19">

--- a/public/gamekpi.xlsx
+++ b/public/gamekpi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\Desafio Excelencia\desafio-excelencia\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5673B3-CC3F-4800-BFE3-98B9463DCAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E4B5A5-451B-467A-B390-23AB7E83C949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E98F70-F2BD-4803-AD90-387C3126D71E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="82">
   <si>
     <t>CPN</t>
   </si>
@@ -114,81 +114,12 @@
     <t>Total Qtd. Bos</t>
   </si>
   <si>
-    <t>Maria Larissa da Silva Gadelha</t>
-  </si>
-  <si>
-    <t>Isabela Pereira Nestri Menezes</t>
-  </si>
-  <si>
-    <t>Alisson Jandre Silva</t>
-  </si>
-  <si>
-    <t>Paula Gabriela dos Santos Costa</t>
-  </si>
-  <si>
-    <t>Luiza</t>
-  </si>
-  <si>
-    <t>Analista Prevenção à Perda</t>
-  </si>
-  <si>
-    <t>Assistente Prevenção à Perda</t>
-  </si>
-  <si>
-    <t>Supervisor de Operações</t>
-  </si>
-  <si>
-    <t>Tito Ricardo Prestes Silva</t>
-  </si>
-  <si>
-    <t>Fabio Souza da Rosa</t>
-  </si>
-  <si>
-    <t>Jessica da Silveira Maiser Mancio</t>
-  </si>
-  <si>
-    <t>Cristiane Moraes de Souza</t>
-  </si>
-  <si>
     <t>Simone Pacheco</t>
   </si>
   <si>
-    <t>Karoline Santos da Silva</t>
-  </si>
-  <si>
-    <t>Bruno Leonardo Pereira Calçada</t>
-  </si>
-  <si>
-    <t>Giovana Vaz de Souza</t>
-  </si>
-  <si>
-    <t>Orlando Cordeiro Alberti</t>
-  </si>
-  <si>
-    <t>Felipe da Silva</t>
-  </si>
-  <si>
     <t>Jovem Aprendiz</t>
   </si>
   <si>
-    <t>Katriane Graziela da Silva Lemos</t>
-  </si>
-  <si>
-    <t>Marcelo Silva Assis</t>
-  </si>
-  <si>
-    <t>Juliana Aparecida de Morais</t>
-  </si>
-  <si>
-    <t>Ana Carolina Pereira</t>
-  </si>
-  <si>
-    <t>Luciene Cruz de Oliveira</t>
-  </si>
-  <si>
-    <t>Reberthe Regis de Sousa Martins</t>
-  </si>
-  <si>
     <t>FLN</t>
   </si>
   <si>
@@ -205,6 +136,156 @@
   </si>
   <si>
     <t>RIP</t>
+  </si>
+  <si>
+    <t>Alisson Silva</t>
+  </si>
+  <si>
+    <t>Maria Gadelha</t>
+  </si>
+  <si>
+    <t>Isabela Menezes</t>
+  </si>
+  <si>
+    <t>Paula Costa</t>
+  </si>
+  <si>
+    <t>Reberthe Martins</t>
+  </si>
+  <si>
+    <t>Jessica Mancio</t>
+  </si>
+  <si>
+    <t>Fabio Rosa</t>
+  </si>
+  <si>
+    <t>Tito Silva</t>
+  </si>
+  <si>
+    <t>Cristiane Souza</t>
+  </si>
+  <si>
+    <t>Karoline Silva</t>
+  </si>
+  <si>
+    <t>Bruno Calçada</t>
+  </si>
+  <si>
+    <t>Felipe Silva</t>
+  </si>
+  <si>
+    <t>Orlando Alberti</t>
+  </si>
+  <si>
+    <t>Katriane Lemos</t>
+  </si>
+  <si>
+    <t>Giovana Souza</t>
+  </si>
+  <si>
+    <t>Marcelo Assis</t>
+  </si>
+  <si>
+    <t>Juliana Morais</t>
+  </si>
+  <si>
+    <t>Ana Pereira</t>
+  </si>
+  <si>
+    <t>Luciene Oliveira</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>Milton Machado</t>
+  </si>
+  <si>
+    <t>Jaqueline Sousa</t>
+  </si>
+  <si>
+    <t>Assistente SQO</t>
+  </si>
+  <si>
+    <t>Felipe Calado</t>
+  </si>
+  <si>
+    <t>Marcia Barbosa</t>
+  </si>
+  <si>
+    <t>Sara Ferreira</t>
+  </si>
+  <si>
+    <t>Supervisora</t>
+  </si>
+  <si>
+    <t>Gabriela Luckmann</t>
+  </si>
+  <si>
+    <t>Aline Sansão</t>
+  </si>
+  <si>
+    <t>Jeferson Batista</t>
+  </si>
+  <si>
+    <t>Camila Caires</t>
+  </si>
+  <si>
+    <t>Analista</t>
+  </si>
+  <si>
+    <t>José Lessa</t>
+  </si>
+  <si>
+    <t>Marenice Pauletti</t>
+  </si>
+  <si>
+    <t>Antonio Portilho</t>
+  </si>
+  <si>
+    <t>Natanael Marins</t>
+  </si>
+  <si>
+    <t>Sidney Mendes</t>
+  </si>
+  <si>
+    <t>Thales Silva</t>
+  </si>
+  <si>
+    <t>Crislley de Souza</t>
+  </si>
+  <si>
+    <t>Julia da Silva</t>
+  </si>
+  <si>
+    <t>Felipe Daudt</t>
+  </si>
+  <si>
+    <t>Ana Paula Martins</t>
+  </si>
+  <si>
+    <t>Genilson da Cruz</t>
+  </si>
+  <si>
+    <t>Renata Giesel</t>
+  </si>
+  <si>
+    <t>Gabriella Rodrigues</t>
+  </si>
+  <si>
+    <t>Fabiane Finkler</t>
+  </si>
+  <si>
+    <t>Thais da Rosa</t>
+  </si>
+  <si>
+    <t>Patrick Martins</t>
+  </si>
+  <si>
+    <t>João Victhor Dias</t>
+  </si>
+  <si>
+    <t>Diego José de Souza</t>
   </si>
 </sst>
 </file>
@@ -904,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69D33A2-B1E2-48C9-912C-4FE4D29EFFE1}">
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,11 +1054,11 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -990,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>9</v>
@@ -1002,7 +1083,7 @@
         <v>27</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="O2" s="2">
         <v>47</v>
@@ -1015,11 +1096,11 @@
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
+      <c r="B3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -1044,7 +1125,7 @@
         <v>36</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="O3" s="2">
         <v>37</v>
@@ -1057,11 +1138,11 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>30</v>
+      <c r="B4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -1085,7 +1166,7 @@
         <v>22</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="O4" s="2">
         <v>16</v>
@@ -1098,11 +1179,11 @@
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>30</v>
+      <c r="B5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -1126,7 +1207,7 @@
         <v>16</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="O5" s="2">
         <v>10</v>
@@ -1139,11 +1220,11 @@
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
+      <c r="B6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -1167,7 +1248,7 @@
         <v>8</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="O6" s="2">
         <v>9</v>
@@ -1180,12 +1261,8 @@
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="2">
         <v>0</v>
       </c>
@@ -1208,7 +1285,7 @@
         <v>11</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="O7" s="2">
         <v>2</v>
@@ -1221,18 +1298,17 @@
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>34</v>
+      <c r="B8" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <f>SUM(H2:H7)</f>
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="L8" s="4">
         <f>SUM(L2:L7)</f>
@@ -1247,11 +1323,11 @@
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
+      <c r="B9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -1264,11 +1340,11 @@
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
+      <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -1284,11 +1360,11 @@
       <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
+      <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -1318,11 +1394,11 @@
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>30</v>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -1351,11 +1427,11 @@
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>30</v>
+      <c r="B13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -1385,11 +1461,11 @@
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>30</v>
+      <c r="B14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -1418,11 +1494,11 @@
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>41</v>
+      <c r="B15" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -1451,11 +1527,11 @@
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>30</v>
+      <c r="B16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -1484,11 +1560,11 @@
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>30</v>
+      <c r="B17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -1517,11 +1593,11 @@
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>39</v>
+      <c r="B18" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -1550,11 +1626,11 @@
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>44</v>
+      <c r="B19" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -1583,11 +1659,11 @@
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>29</v>
+      <c r="B20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
@@ -1616,11 +1692,11 @@
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>30</v>
+      <c r="B21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -1649,11 +1725,11 @@
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>30</v>
+      <c r="B22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
@@ -1679,8 +1755,15 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
@@ -1706,13 +1789,20 @@
       <c r="L23" s="13"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="G24" s="16">
         <v>1</v>
@@ -1732,13 +1822,20 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="A25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="G25" s="16">
         <v>7</v>
@@ -1757,13 +1854,20 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="A26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="G26" s="16">
         <v>3</v>
@@ -1783,13 +1887,20 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="A27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="D27" s="2">
         <v>0</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="16">
@@ -1806,13 +1917,20 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="A28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D28" s="2">
         <v>0</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="6">
@@ -1829,13 +1947,20 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="A29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D29" s="2">
         <v>0</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="19">
@@ -1852,245 +1977,386 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="A30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D30" s="2">
         <v>0</v>
       </c>
       <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="A31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="D31" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="A32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D32" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="D33" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="D34" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="D35" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D36" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D37" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D38" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D39" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="D40" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D41" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D42" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="D43" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="D44" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D45" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D46" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="D47" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D48" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D49" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="D50" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2">

--- a/public/gamekpi.xlsx
+++ b/public/gamekpi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\Desafio Excelencia\desafio-excelencia\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E4B5A5-451B-467A-B390-23AB7E83C949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D427E02-5FBA-40FB-8CA2-F756FD8C8012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E98F70-F2BD-4803-AD90-387C3126D71E}"/>
   </bookViews>
@@ -541,7 +541,83 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -606,16 +682,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8C13C1E-5F53-4111-A4DE-83490ADA3B70}" name="Tabela3" displayName="Tabela3" ref="A1:D87" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8C13C1E-5F53-4111-A4DE-83490ADA3B70}" name="Tabela3" displayName="Tabela3" ref="A1:D87" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:D87" xr:uid="{E8C13C1E-5F53-4111-A4DE-83490ADA3B70}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D87">
     <sortCondition descending="1" ref="D1:D87"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C2F614AC-1218-44F3-A797-18C3097017C6}" name="CENTRALIZADORA" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{45D68A52-3865-49D5-A741-E4D9BBD50472}" name="NOME" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{5FF040C7-48AA-44EF-92A4-7CC24870E1C0}" name="FUNÇÃO" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{01370DD3-1218-4F36-931A-4F4478CC2EEA}" name="PONTUAÇÃO" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C2F614AC-1218-44F3-A797-18C3097017C6}" name="CENTRALIZADORA" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{45D68A52-3865-49D5-A741-E4D9BBD50472}" name="NOME" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{5FF040C7-48AA-44EF-92A4-7CC24870E1C0}" name="FUNÇÃO" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{01370DD3-1218-4F36-931A-4F4478CC2EEA}" name="PONTUAÇÃO" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -629,8 +705,8 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{607FB3E2-F93B-48F0-9736-1E006A3D64FA}" name="Centralizadora"/>
-    <tableColumn id="2" xr3:uid="{D2C7C606-4C05-4FD0-9F33-0C6F4ED5B826}" name="Pontuação do Dia"/>
-    <tableColumn id="3" xr3:uid="{0CF2F42B-E2A6-437C-A7F1-3ECC94EBFC0C}" name="Total Geral"/>
+    <tableColumn id="2" xr3:uid="{D2C7C606-4C05-4FD0-9F33-0C6F4ED5B826}" name="Pontuação do Dia" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{0CF2F42B-E2A6-437C-A7F1-3ECC94EBFC0C}" name="Total Geral" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -644,8 +720,8 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1618306F-692F-4A75-9048-FD7F2911046B}" name="Centralizadora"/>
-    <tableColumn id="2" xr3:uid="{E3F121A5-4BE6-4382-8C8E-144DA87A9591}" name="Pontuação do Dia"/>
-    <tableColumn id="3" xr3:uid="{F96D9855-59C9-4772-AD6D-9402C34B0F6F}" name="Total Geral"/>
+    <tableColumn id="2" xr3:uid="{E3F121A5-4BE6-4382-8C8E-144DA87A9591}" name="Pontuação do Dia" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{F96D9855-59C9-4772-AD6D-9402C34B0F6F}" name="Total Geral" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -986,7 +1062,7 @@
   <dimension ref="A1:P87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,35 +1137,35 @@
         <v>51</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <f>Tabela3[[#This Row],[PONTUAÇÃO]]+D3+D4</f>
-        <v>0</v>
+        <f>SUM(D2:D4)</f>
+        <v>100</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="O2" s="2">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="P2" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1103,35 +1179,34 @@
         <v>63</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="2">
-        <f>D5+D6+D7+D8</f>
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="O3" s="2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1145,34 +1220,34 @@
         <v>54</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="2">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="2">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1192,28 +1267,28 @@
         <v>14</v>
       </c>
       <c r="G5" s="2">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K5" s="2">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O5" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1233,28 +1308,28 @@
         <v>16</v>
       </c>
       <c r="G6" s="2">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="2">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="O6" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1270,28 +1345,28 @@
         <v>18</v>
       </c>
       <c r="G7" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K7" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O7" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1308,15 +1383,13 @@
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="4">
-        <f>SUM(L2:L7)</f>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="P8" s="4">
-        <f>SUM(P2:P7)</f>
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">

--- a/public/gamekpi.xlsx
+++ b/public/gamekpi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\Desafio Excelencia\desafio-excelencia\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D427E02-5FBA-40FB-8CA2-F756FD8C8012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE88EFD-7107-401B-974D-1B2CFC1E48E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E98F70-F2BD-4803-AD90-387C3126D71E}"/>
   </bookViews>
@@ -471,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -518,18 +518,6 @@
     </xf>
     <xf numFmtId="3" fontId="10" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1061,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69D33A2-B1E2-48C9-912C-4FE4D29EFFE1}">
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,12 +1410,12 @@
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -1476,24 +1464,23 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="18" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="16">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H12" s="16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I12" s="16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J12" s="16">
-        <v>1</v>
-      </c>
-      <c r="K12" s="17">
-        <f t="shared" ref="K12:K26" si="0">SUM(G12:J12)</f>
-        <v>53</v>
+        <v>0</v>
+      </c>
+      <c r="K12" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1509,24 +1496,23 @@
       <c r="D13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="18" t="s">
         <v>1</v>
       </c>
       <c r="G13" s="16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H13" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J13" s="16">
-        <v>26</v>
-      </c>
-      <c r="K13" s="17">
-        <f t="shared" si="0"/>
-        <v>39</v>
+        <v>0</v>
+      </c>
+      <c r="K13" s="16">
+        <v>0</v>
       </c>
       <c r="L13" s="12"/>
     </row>
@@ -1543,24 +1529,23 @@
       <c r="D14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H14" s="16">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I14" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="16">
-        <v>9</v>
-      </c>
-      <c r="K14" s="17">
-        <f t="shared" si="0"/>
-        <v>39</v>
+        <v>0</v>
+      </c>
+      <c r="K14" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1576,24 +1561,23 @@
       <c r="D15" s="2">
         <v>0</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="18" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="16">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H15" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I15" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J15" s="16">
-        <v>1</v>
-      </c>
-      <c r="K15" s="17">
-        <f t="shared" si="0"/>
-        <v>37</v>
+        <v>0</v>
+      </c>
+      <c r="K15" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1609,24 +1593,23 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="18" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I16" s="16">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="J16" s="16">
-        <v>3</v>
-      </c>
-      <c r="K16" s="17">
-        <f t="shared" si="0"/>
-        <v>37</v>
+        <v>0</v>
+      </c>
+      <c r="K16" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1642,24 +1625,23 @@
       <c r="D17" s="2">
         <v>0</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="18" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" s="16">
-        <v>9</v>
-      </c>
-      <c r="J17" s="20">
-        <v>11</v>
-      </c>
-      <c r="K17" s="17">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="J17" s="16">
+        <v>0</v>
+      </c>
+      <c r="K17" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1675,24 +1657,23 @@
       <c r="D18" s="2">
         <v>0</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="18" t="s">
         <v>9</v>
       </c>
       <c r="G18" s="16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H18" s="16">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I18" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="16">
-        <v>7</v>
-      </c>
-      <c r="K18" s="17">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="K18" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1708,24 +1689,23 @@
       <c r="D19" s="2">
         <v>0</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="16">
-        <v>1</v>
-      </c>
-      <c r="H19" s="18">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="H19" s="16">
+        <v>0</v>
       </c>
       <c r="I19" s="16">
-        <v>7</v>
-      </c>
-      <c r="J19" s="20">
-        <v>5</v>
-      </c>
-      <c r="K19" s="17">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="J19" s="16">
+        <v>0</v>
+      </c>
+      <c r="K19" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1741,24 +1721,23 @@
       <c r="D20" s="2">
         <v>0</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="18" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="16">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H20" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J20" s="16">
-        <v>1</v>
-      </c>
-      <c r="K20" s="17">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="K20" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1774,24 +1753,23 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J21" s="16">
-        <v>5</v>
-      </c>
-      <c r="K21" s="17">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="K21" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1807,24 +1785,23 @@
       <c r="D22" s="2">
         <v>0</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="18" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="16">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H22" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="16">
-        <v>1</v>
-      </c>
-      <c r="K22" s="17">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1840,24 +1817,23 @@
       <c r="D23" s="2">
         <v>0</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G23" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I23" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="16">
-        <v>5</v>
-      </c>
-      <c r="K23" s="17">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="K23" s="16">
+        <v>0</v>
       </c>
       <c r="L23" s="13"/>
     </row>
@@ -1874,24 +1850,23 @@
       <c r="D24" s="2">
         <v>0</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="18" t="s">
         <v>26</v>
       </c>
       <c r="G24" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I24" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="16">
-        <v>5</v>
-      </c>
-      <c r="K24" s="17">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="K24" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1907,22 +1882,22 @@
       <c r="D25" s="2">
         <v>0</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="18" t="s">
         <v>27</v>
       </c>
       <c r="G25" s="16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H25" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="16">
-        <v>2</v>
-      </c>
-      <c r="K25" s="17">
+        <v>0</v>
+      </c>
+      <c r="K25" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1939,24 +1914,23 @@
       <c r="D26" s="2">
         <v>0</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="18" t="s">
         <v>28</v>
       </c>
       <c r="G26" s="16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H26" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="16">
-        <v>5</v>
-      </c>
-      <c r="K26" s="17">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="K26" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1972,21 +1946,23 @@
       <c r="D27" s="2">
         <v>0</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="16"/>
+      <c r="G27" s="16">
+        <v>0</v>
+      </c>
       <c r="H27" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I27" s="16">
-        <v>1</v>
-      </c>
-      <c r="J27" s="19">
-        <v>1</v>
-      </c>
-      <c r="K27" s="17">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J27" s="16">
+        <v>0</v>
+      </c>
+      <c r="K27" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2002,20 +1978,22 @@
       <c r="D28" s="2">
         <v>0</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="6">
-        <v>2</v>
+      <c r="G28" s="16">
+        <v>0</v>
+      </c>
+      <c r="H28" s="16">
+        <v>0</v>
       </c>
       <c r="I28" s="16">
-        <v>3</v>
-      </c>
-      <c r="J28" s="8">
-        <v>2</v>
-      </c>
-      <c r="K28" s="17">
+        <v>0</v>
+      </c>
+      <c r="J28" s="16">
+        <v>0</v>
+      </c>
+      <c r="K28" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2032,20 +2010,22 @@
       <c r="D29" s="2">
         <v>0</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="19">
-        <v>1</v>
+      <c r="G29" s="16">
+        <v>0</v>
+      </c>
+      <c r="H29" s="16">
+        <v>0</v>
       </c>
       <c r="I29" s="16">
-        <v>2</v>
-      </c>
-      <c r="J29" s="19">
-        <v>1</v>
-      </c>
-      <c r="K29" s="17">
+        <v>0</v>
+      </c>
+      <c r="J29" s="16">
+        <v>0</v>
+      </c>
+      <c r="K29" s="16">
         <v>0</v>
       </c>
     </row>

--- a/public/gamekpi.xlsx
+++ b/public/gamekpi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\Desafio Excelencia\desafio-excelencia\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE88EFD-7107-401B-974D-1B2CFC1E48E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468A96B9-CBC5-4069-B76B-297A6CC44421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E98F70-F2BD-4803-AD90-387C3126D71E}"/>
   </bookViews>
@@ -285,7 +285,7 @@
     <t>João Victhor Dias</t>
   </si>
   <si>
-    <t>Diego José de Souza</t>
+    <t>José Diego de Souza</t>
   </si>
 </sst>
 </file>
@@ -1049,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69D33A2-B1E2-48C9-912C-4FE4D29EFFE1}">
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/gamekpi.xlsx
+++ b/public/gamekpi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\Desafio Excelencia\desafio-excelencia\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468A96B9-CBC5-4069-B76B-297A6CC44421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155B5D54-C244-4F38-97D0-F792AC70BD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E98F70-F2BD-4803-AD90-387C3126D71E}"/>
   </bookViews>
@@ -1049,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69D33A2-B1E2-48C9-912C-4FE4D29EFFE1}">
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,17 +1125,17 @@
         <v>51</v>
       </c>
       <c r="D2" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="2">
         <f>SUM(D2:D4)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>9</v>
@@ -1167,7 +1167,7 @@
         <v>63</v>
       </c>
       <c r="D3" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>1</v>
@@ -1208,7 +1208,7 @@
         <v>54</v>
       </c>
       <c r="D4" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="4">
         <v>0</v>

--- a/public/gamekpi.xlsx
+++ b/public/gamekpi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\Desafio Excelencia\desafio-excelencia\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155B5D54-C244-4F38-97D0-F792AC70BD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5502694C-57BB-4ABC-998B-7F4AD217C8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E98F70-F2BD-4803-AD90-387C3126D71E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha2!$F$11:$K$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha2!$F$34:$I$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="84">
   <si>
     <t>CPN</t>
   </si>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>José Diego de Souza</t>
+  </si>
+  <si>
+    <t>Luiza Souza</t>
+  </si>
+  <si>
+    <t>Endrigo Boreli</t>
   </si>
 </sst>
 </file>
@@ -370,7 +376,7 @@
       <name val="Tenorite"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,14 +416,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -467,11 +467,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -516,20 +525,201 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4F81BD"/>
+          <bgColor rgb="FF4F81BD"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -670,16 +860,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8C13C1E-5F53-4111-A4DE-83490ADA3B70}" name="Tabela3" displayName="Tabela3" ref="A1:D87" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:D87" xr:uid="{E8C13C1E-5F53-4111-A4DE-83490ADA3B70}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8C13C1E-5F53-4111-A4DE-83490ADA3B70}" name="Tabela3" displayName="Tabela3" ref="A1:D35" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:D35" xr:uid="{E8C13C1E-5F53-4111-A4DE-83490ADA3B70}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D87">
     <sortCondition descending="1" ref="D1:D87"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C2F614AC-1218-44F3-A797-18C3097017C6}" name="CENTRALIZADORA" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{45D68A52-3865-49D5-A741-E4D9BBD50472}" name="NOME" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{5FF040C7-48AA-44EF-92A4-7CC24870E1C0}" name="FUNÇÃO" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{01370DD3-1218-4F36-931A-4F4478CC2EEA}" name="PONTUAÇÃO" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{C2F614AC-1218-44F3-A797-18C3097017C6}" name="CENTRALIZADORA" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{45D68A52-3865-49D5-A741-E4D9BBD50472}" name="NOME" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{5FF040C7-48AA-44EF-92A4-7CC24870E1C0}" name="FUNÇÃO" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{01370DD3-1218-4F36-931A-4F4478CC2EEA}" name="PONTUAÇÃO" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -693,23 +883,23 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{607FB3E2-F93B-48F0-9736-1E006A3D64FA}" name="Centralizadora"/>
-    <tableColumn id="2" xr3:uid="{D2C7C606-4C05-4FD0-9F33-0C6F4ED5B826}" name="Pontuação do Dia" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{0CF2F42B-E2A6-437C-A7F1-3ECC94EBFC0C}" name="Total Geral" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{D2C7C606-4C05-4FD0-9F33-0C6F4ED5B826}" name="Pontuação do Dia" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{0CF2F42B-E2A6-437C-A7F1-3ECC94EBFC0C}" name="Total Geral" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5D120ED6-7398-41F8-8826-774F82FF993B}" name="Tabela338" displayName="Tabela338" ref="N1:P8" totalsRowShown="0">
-  <autoFilter ref="N1:P8" xr:uid="{5D120ED6-7398-41F8-8826-774F82FF993B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5D120ED6-7398-41F8-8826-774F82FF993B}" name="Tabela338" displayName="Tabela338" ref="N1:P11" totalsRowShown="0">
+  <autoFilter ref="N1:P11" xr:uid="{5D120ED6-7398-41F8-8826-774F82FF993B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N2:P7">
     <sortCondition descending="1" ref="O3:O9"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1618306F-692F-4A75-9048-FD7F2911046B}" name="Centralizadora"/>
-    <tableColumn id="2" xr3:uid="{E3F121A5-4BE6-4382-8C8E-144DA87A9591}" name="Pontuação do Dia" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{F96D9855-59C9-4772-AD6D-9402C34B0F6F}" name="Total Geral" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{E3F121A5-4BE6-4382-8C8E-144DA87A9591}" name="Pontuação do Dia" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{F96D9855-59C9-4772-AD6D-9402C34B0F6F}" name="Total Geral" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -725,6 +915,22 @@
     <tableColumn id="1" xr3:uid="{D05AE4B0-B3C0-40BE-9A58-1B5A5E9CD0D1}" name="Centralizadora"/>
     <tableColumn id="2" xr3:uid="{F842BB63-21B0-49AB-9B9C-5D9DE943DE41}" name="Pontuação do Dia"/>
     <tableColumn id="3" xr3:uid="{21FBA20D-5455-4291-997F-8A11530D8982}" name="Total Geral"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{ED9B8F0F-E705-4E96-BAFD-AD609D0FC6F6}" name="Tabela2" displayName="Tabela2" ref="A37:D52" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="5">
+  <autoFilter ref="A37:D52" xr:uid="{ED9B8F0F-E705-4E96-BAFD-AD609D0FC6F6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A38:D52">
+    <sortCondition descending="1" ref="D37:D52"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{9936172B-F1BA-43B3-8089-5AC84AF775F6}" name="CENTRALIZADORA" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{39F1A9EB-6424-4369-BE4C-EEE321D8B2E6}" name="NOME" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{8EA4B672-EDD3-47D7-A546-9D0675D2131B}" name="FUNÇÃO" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{48C6F404-8C3C-43CA-ADC4-9A51DDBE5673}" name="PONTUAÇÃO" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1049,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69D33A2-B1E2-48C9-912C-4FE4D29EFFE1}">
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,10 +1356,12 @@
         <v>26</v>
       </c>
       <c r="O2" s="2">
-        <v>0</v>
+        <f>SUM(D$45+D$46)</f>
+        <v>1000</v>
       </c>
       <c r="P2" s="2">
-        <v>0</v>
+        <f>O2</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1191,10 +1399,12 @@
         <v>27</v>
       </c>
       <c r="O3" s="2">
-        <v>0</v>
+        <f>SUM(D$47:D$48)</f>
+        <v>1000</v>
       </c>
       <c r="P3" s="2">
-        <v>0</v>
+        <f t="shared" ref="P3:P10" si="0">O3</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1232,10 +1442,12 @@
         <v>28</v>
       </c>
       <c r="O4" s="2">
-        <v>0</v>
+        <f>D$38</f>
+        <v>1000</v>
       </c>
       <c r="P4" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1273,10 +1485,12 @@
         <v>29</v>
       </c>
       <c r="O5" s="2">
-        <v>0</v>
+        <f>SUM(D$43+D$44)</f>
+        <v>1000</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1293,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -1301,12 +1515,8 @@
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
       <c r="L6" s="2">
         <v>0</v>
       </c>
@@ -1314,36 +1524,32 @@
         <v>30</v>
       </c>
       <c r="O6" s="2">
-        <v>0</v>
+        <f>D$39</f>
+        <v>1000</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
       <c r="L7" s="2">
         <v>0</v>
       </c>
@@ -1351,10 +1557,12 @@
         <v>31</v>
       </c>
       <c r="O7" s="2">
-        <v>0</v>
+        <f>D$41</f>
+        <v>1000</v>
       </c>
       <c r="P7" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1376,8 +1584,16 @@
       <c r="L8" s="4">
         <v>0</v>
       </c>
-      <c r="P8" s="4">
-        <v>0</v>
+      <c r="N8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="2">
+        <f>D$42</f>
+        <v>1000</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1396,6 +1612,17 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
+      <c r="N9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="2">
+        <f>D$40</f>
+        <v>1000</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1410,12 +1637,23 @@
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="N10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="2">
+        <f>SUM(D$49:D$52)</f>
+        <v>1000</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -1450,6 +1688,11 @@
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="11"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2">
+        <f>SUM(P2:P10)</f>
+        <v>9000</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1464,24 +1707,26 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="16">
-        <v>0</v>
-      </c>
-      <c r="H12" s="16">
-        <v>0</v>
-      </c>
-      <c r="I12" s="16">
-        <v>0</v>
-      </c>
-      <c r="J12" s="16">
-        <v>0</v>
-      </c>
-      <c r="K12" s="16">
-        <v>0</v>
-      </c>
+      <c r="F12" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="25">
+        <v>217</v>
+      </c>
+      <c r="H12" s="25">
+        <v>92</v>
+      </c>
+      <c r="I12" s="25">
+        <v>23</v>
+      </c>
+      <c r="J12" s="25">
+        <v>83</v>
+      </c>
+      <c r="K12" s="25">
+        <v>415</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -1496,25 +1741,27 @@
       <c r="D13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="16">
-        <v>0</v>
-      </c>
-      <c r="H13" s="16">
-        <v>0</v>
-      </c>
-      <c r="I13" s="16">
-        <v>0</v>
-      </c>
-      <c r="J13" s="16">
-        <v>0</v>
-      </c>
-      <c r="K13" s="16">
-        <v>0</v>
+      <c r="G13" s="25">
+        <v>118</v>
+      </c>
+      <c r="H13" s="25">
+        <v>40</v>
+      </c>
+      <c r="I13" s="25">
+        <v>20</v>
+      </c>
+      <c r="J13" s="25">
+        <v>40</v>
+      </c>
+      <c r="K13" s="25">
+        <v>218</v>
       </c>
       <c r="L13" s="12"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1529,23 +1776,23 @@
       <c r="D14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="16">
-        <v>0</v>
-      </c>
-      <c r="H14" s="16">
-        <v>0</v>
-      </c>
-      <c r="I14" s="16">
-        <v>0</v>
-      </c>
-      <c r="J14" s="16">
-        <v>0</v>
-      </c>
-      <c r="K14" s="16">
-        <v>0</v>
+      <c r="G14" s="25">
+        <v>114</v>
+      </c>
+      <c r="H14" s="25">
+        <v>29</v>
+      </c>
+      <c r="I14" s="25">
+        <v>15</v>
+      </c>
+      <c r="J14" s="25">
+        <v>24</v>
+      </c>
+      <c r="K14" s="25">
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1561,23 +1808,23 @@
       <c r="D15" s="2">
         <v>0</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="16">
-        <v>0</v>
-      </c>
-      <c r="H15" s="16">
-        <v>0</v>
-      </c>
-      <c r="I15" s="16">
-        <v>0</v>
-      </c>
-      <c r="J15" s="16">
-        <v>0</v>
-      </c>
-      <c r="K15" s="16">
-        <v>0</v>
+      <c r="G15" s="25">
+        <v>74</v>
+      </c>
+      <c r="H15" s="25">
+        <v>29</v>
+      </c>
+      <c r="I15" s="25">
+        <v>15</v>
+      </c>
+      <c r="J15" s="25">
+        <v>13</v>
+      </c>
+      <c r="K15" s="25">
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1593,23 +1840,23 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="16">
-        <v>0</v>
-      </c>
-      <c r="H16" s="16">
-        <v>0</v>
-      </c>
-      <c r="I16" s="16">
-        <v>0</v>
-      </c>
-      <c r="J16" s="16">
-        <v>0</v>
-      </c>
-      <c r="K16" s="16">
-        <v>0</v>
+      <c r="G16" s="25">
+        <v>101</v>
+      </c>
+      <c r="H16" s="25">
+        <v>15</v>
+      </c>
+      <c r="I16" s="25">
+        <v>7</v>
+      </c>
+      <c r="J16" s="25">
+        <v>4</v>
+      </c>
+      <c r="K16" s="25">
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1625,23 +1872,23 @@
       <c r="D17" s="2">
         <v>0</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="16">
-        <v>0</v>
-      </c>
-      <c r="H17" s="16">
-        <v>0</v>
-      </c>
-      <c r="I17" s="16">
-        <v>0</v>
-      </c>
-      <c r="J17" s="16">
-        <v>0</v>
-      </c>
-      <c r="K17" s="16">
-        <v>0</v>
+      <c r="G17" s="25">
+        <v>56</v>
+      </c>
+      <c r="H17" s="25">
+        <v>26</v>
+      </c>
+      <c r="I17" s="25">
+        <v>10</v>
+      </c>
+      <c r="J17" s="25">
+        <v>23</v>
+      </c>
+      <c r="K17" s="25">
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1657,23 +1904,23 @@
       <c r="D18" s="2">
         <v>0</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="16">
-        <v>0</v>
-      </c>
-      <c r="H18" s="16">
-        <v>0</v>
-      </c>
-      <c r="I18" s="16">
-        <v>0</v>
-      </c>
-      <c r="J18" s="16">
-        <v>0</v>
-      </c>
-      <c r="K18" s="16">
-        <v>0</v>
+      <c r="G18" s="25">
+        <v>61</v>
+      </c>
+      <c r="H18" s="25">
+        <v>28</v>
+      </c>
+      <c r="I18" s="25">
+        <v>6</v>
+      </c>
+      <c r="J18" s="25">
+        <v>16</v>
+      </c>
+      <c r="K18" s="25">
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1689,23 +1936,23 @@
       <c r="D19" s="2">
         <v>0</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="16">
-        <v>0</v>
-      </c>
-      <c r="H19" s="16">
-        <v>0</v>
-      </c>
-      <c r="I19" s="16">
-        <v>0</v>
-      </c>
-      <c r="J19" s="16">
-        <v>0</v>
-      </c>
-      <c r="K19" s="16">
-        <v>0</v>
+      <c r="G19" s="25">
+        <v>31</v>
+      </c>
+      <c r="H19" s="25">
+        <v>17</v>
+      </c>
+      <c r="I19" s="25">
+        <v>5</v>
+      </c>
+      <c r="J19" s="25">
+        <v>27</v>
+      </c>
+      <c r="K19" s="25">
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1721,23 +1968,23 @@
       <c r="D20" s="2">
         <v>0</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="16">
-        <v>0</v>
-      </c>
-      <c r="H20" s="16">
-        <v>0</v>
-      </c>
-      <c r="I20" s="16">
-        <v>0</v>
-      </c>
-      <c r="J20" s="16">
-        <v>0</v>
-      </c>
-      <c r="K20" s="16">
-        <v>0</v>
+      <c r="G20" s="25">
+        <v>62</v>
+      </c>
+      <c r="H20" s="25">
+        <v>9</v>
+      </c>
+      <c r="I20" s="25">
+        <v>7</v>
+      </c>
+      <c r="J20" s="25">
+        <v>1</v>
+      </c>
+      <c r="K20" s="25">
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1753,23 +2000,23 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="16">
-        <v>0</v>
-      </c>
-      <c r="H21" s="16">
-        <v>0</v>
-      </c>
-      <c r="I21" s="16">
-        <v>0</v>
-      </c>
-      <c r="J21" s="16">
-        <v>0</v>
-      </c>
-      <c r="K21" s="16">
-        <v>0</v>
+      <c r="G21" s="25">
+        <v>26</v>
+      </c>
+      <c r="H21" s="25">
+        <v>26</v>
+      </c>
+      <c r="I21" s="25">
+        <v>7</v>
+      </c>
+      <c r="J21" s="25">
+        <v>7</v>
+      </c>
+      <c r="K21" s="25">
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1785,23 +2032,23 @@
       <c r="D22" s="2">
         <v>0</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="16">
-        <v>0</v>
-      </c>
-      <c r="H22" s="16">
-        <v>0</v>
-      </c>
-      <c r="I22" s="16">
-        <v>0</v>
-      </c>
-      <c r="J22" s="16">
-        <v>0</v>
-      </c>
-      <c r="K22" s="16">
-        <v>0</v>
+      <c r="G22" s="25">
+        <v>14</v>
+      </c>
+      <c r="H22" s="25">
+        <v>8</v>
+      </c>
+      <c r="I22" s="25">
+        <v>4</v>
+      </c>
+      <c r="J22" s="25">
+        <v>10</v>
+      </c>
+      <c r="K22" s="25">
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1817,23 +2064,19 @@
       <c r="D23" s="2">
         <v>0</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="16">
-        <v>0</v>
-      </c>
-      <c r="H23" s="16">
-        <v>0</v>
-      </c>
-      <c r="I23" s="16">
-        <v>0</v>
-      </c>
-      <c r="J23" s="16">
-        <v>0</v>
-      </c>
-      <c r="K23" s="16">
-        <v>0</v>
+      <c r="G23" s="25">
+        <v>20</v>
+      </c>
+      <c r="H23" s="25">
+        <v>2</v>
+      </c>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25">
+        <v>22</v>
       </c>
       <c r="L23" s="13"/>
     </row>
@@ -1850,23 +2093,23 @@
       <c r="D24" s="2">
         <v>0</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="16">
-        <v>0</v>
-      </c>
-      <c r="H24" s="16">
-        <v>0</v>
-      </c>
-      <c r="I24" s="16">
-        <v>0</v>
-      </c>
-      <c r="J24" s="16">
-        <v>0</v>
-      </c>
-      <c r="K24" s="16">
-        <v>0</v>
+      <c r="G24" s="25">
+        <v>7</v>
+      </c>
+      <c r="H24" s="25">
+        <v>6</v>
+      </c>
+      <c r="I24" s="25">
+        <v>1</v>
+      </c>
+      <c r="J24" s="25">
+        <v>7</v>
+      </c>
+      <c r="K24" s="25">
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1882,23 +2125,23 @@
       <c r="D25" s="2">
         <v>0</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="16">
-        <v>0</v>
-      </c>
-      <c r="H25" s="16">
-        <v>0</v>
-      </c>
-      <c r="I25" s="16">
-        <v>0</v>
-      </c>
-      <c r="J25" s="16">
-        <v>0</v>
-      </c>
-      <c r="K25" s="16">
-        <v>0</v>
+      <c r="G25" s="25">
+        <v>6</v>
+      </c>
+      <c r="H25" s="25">
+        <v>2</v>
+      </c>
+      <c r="I25" s="25">
+        <v>2</v>
+      </c>
+      <c r="J25" s="25">
+        <v>1</v>
+      </c>
+      <c r="K25" s="25">
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1914,31 +2157,29 @@
       <c r="D26" s="2">
         <v>0</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="16">
-        <v>0</v>
-      </c>
-      <c r="H26" s="16">
-        <v>0</v>
-      </c>
-      <c r="I26" s="16">
-        <v>0</v>
-      </c>
-      <c r="J26" s="16">
-        <v>0</v>
-      </c>
-      <c r="K26" s="16">
-        <v>0</v>
+      <c r="G26" s="25">
+        <v>3</v>
+      </c>
+      <c r="H26" s="25">
+        <v>2</v>
+      </c>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25">
+        <v>6</v>
+      </c>
+      <c r="K26" s="25">
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>58</v>
@@ -1946,113 +2187,109 @@
       <c r="D27" s="2">
         <v>0</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="16">
-        <v>0</v>
-      </c>
-      <c r="H27" s="16">
-        <v>0</v>
-      </c>
-      <c r="I27" s="16">
-        <v>0</v>
-      </c>
-      <c r="J27" s="16">
-        <v>0</v>
-      </c>
-      <c r="K27" s="16">
-        <v>0</v>
+      <c r="G27" s="25">
+        <v>6</v>
+      </c>
+      <c r="H27" s="25">
+        <v>2</v>
+      </c>
+      <c r="I27" s="25">
+        <v>2</v>
+      </c>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25">
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="16">
-        <v>0</v>
-      </c>
-      <c r="H28" s="16">
-        <v>0</v>
-      </c>
-      <c r="I28" s="16">
-        <v>0</v>
-      </c>
-      <c r="J28" s="16">
-        <v>0</v>
-      </c>
-      <c r="K28" s="16">
-        <v>0</v>
+      <c r="G28" s="25">
+        <v>3</v>
+      </c>
+      <c r="H28" s="25">
+        <v>3</v>
+      </c>
+      <c r="I28" s="25">
+        <v>2</v>
+      </c>
+      <c r="J28" s="25">
+        <v>1</v>
+      </c>
+      <c r="K28" s="25">
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="16">
-        <v>0</v>
-      </c>
-      <c r="H29" s="16">
-        <v>0</v>
-      </c>
-      <c r="I29" s="16">
-        <v>0</v>
-      </c>
-      <c r="J29" s="16">
-        <v>0</v>
-      </c>
-      <c r="K29" s="16">
-        <v>0</v>
+      <c r="G29" s="25">
+        <v>3</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25">
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
       </c>
-      <c r="G30" s="16"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
@@ -2060,10 +2297,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>54</v>
@@ -2072,26 +2309,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>63</v>
@@ -2099,497 +2336,498 @@
       <c r="D34" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="24"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="24"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="24"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="20">
+        <v>1000</v>
+      </c>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="24"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="20">
+        <v>1000</v>
+      </c>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="24"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="D40" s="20">
+        <v>1000</v>
+      </c>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="24"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="20">
+        <v>1000</v>
+      </c>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="24"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="D42" s="20">
+        <v>1000</v>
+      </c>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="24"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="20">
+        <v>500</v>
+      </c>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="24"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="D44" s="20">
+        <v>500</v>
+      </c>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="24"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="20">
+        <v>500</v>
+      </c>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="24"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="D46" s="20">
+        <v>500</v>
+      </c>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="24"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="D47" s="20">
+        <v>500</v>
+      </c>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="24"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="D48" s="20">
+        <v>500</v>
+      </c>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="24"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="20">
+        <v>250</v>
+      </c>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="24"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C45" s="4" t="s">
+      <c r="D50" s="20">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="4" t="s">
+      <c r="D51" s="20">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="20">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="2">
-        <v>0</v>
-      </c>
+      <c r="D64" s="2"/>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="2">
-        <v>0</v>
-      </c>
+      <c r="D65" s="2"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="2">
-        <v>0</v>
-      </c>
+      <c r="D66" s="2"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="2">
-        <v>0</v>
-      </c>
+      <c r="D67" s="2"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="2">
-        <v>0</v>
-      </c>
+      <c r="D68" s="2"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="2">
-        <v>0</v>
-      </c>
+      <c r="D69" s="2"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="2">
-        <v>0</v>
-      </c>
+      <c r="D70" s="2"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="2">
-        <v>0</v>
-      </c>
+      <c r="D71" s="2"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="2">
-        <v>0</v>
-      </c>
+      <c r="D72" s="2"/>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="2">
-        <v>0</v>
-      </c>
+      <c r="D73" s="2"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="2">
-        <v>0</v>
-      </c>
+      <c r="D74" s="2"/>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="2">
-        <v>0</v>
-      </c>
+      <c r="D75" s="2"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="2">
-        <v>0</v>
-      </c>
+      <c r="D76" s="2"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="2">
-        <v>0</v>
-      </c>
+      <c r="D77" s="2"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="2">
-        <v>0</v>
-      </c>
+      <c r="D78" s="2"/>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
-      <c r="D79" s="2">
-        <v>0</v>
-      </c>
+      <c r="D79" s="2"/>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="2">
-        <v>0</v>
-      </c>
+      <c r="D80" s="2"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
-      <c r="D81" s="2">
-        <v>0</v>
-      </c>
+      <c r="D81" s="2"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="2">
-        <v>0</v>
-      </c>
+      <c r="D82" s="2"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="2">
-        <v>0</v>
-      </c>
+      <c r="D83" s="2"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
-      <c r="D84" s="2">
-        <v>0</v>
-      </c>
+      <c r="D84" s="2"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
-      <c r="D85" s="2">
-        <v>0</v>
-      </c>
+      <c r="D85" s="2"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="2">
-        <v>0</v>
-      </c>
+      <c r="D86" s="2"/>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="2">
-        <v>0</v>
-      </c>
+      <c r="D87" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="F11:K11" xr:uid="{E69D33A2-B1E2-48C9-912C-4FE4D29EFFE1}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F12:K29">
-      <sortCondition descending="1" ref="K11"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <tableParts count="4">
+  <tableParts count="5">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/public/gamekpi.xlsx
+++ b/public/gamekpi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\Desafio Excelencia\desafio-excelencia\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D0DD1A-4158-4162-BD61-86DB6CFC4A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03235A33-C233-4EFB-A19D-90295FD6122D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E98F70-F2BD-4803-AD90-387C3126D71E}"/>
   </bookViews>
@@ -4162,8 +4162,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4596,8 +4596,8 @@
       </c>
       <c r="M11" s="10"/>
       <c r="P11" s="24">
-        <f>9000-SUM(P2:P10)</f>
-        <v>222</v>
+        <f>-ABS(9000-SUM(P2:P10))</f>
+        <v>-222</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">

--- a/public/gamekpi.xlsx
+++ b/public/gamekpi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\Desafio Excelencia\desafio-excelencia\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03235A33-C233-4EFB-A19D-90295FD6122D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F771BB-04D8-4B34-A499-576C93E79EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E98F70-F2BD-4803-AD90-387C3126D71E}"/>
   </bookViews>
@@ -4162,8 +4162,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4909,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G23" s="15">
         <v>113</v>
@@ -4942,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G24" s="15">
         <v>127</v>
@@ -4973,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G25" s="15">
         <v>119</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G26" s="15">
         <v>89</v>
@@ -5039,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="G27" s="15">
         <v>94</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G28" s="15">
         <v>39</v>
@@ -5105,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G29" s="15">
         <v>46</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G30" s="15">
         <v>50</v>
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G31" s="15">
         <v>21</v>
@@ -5204,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G32" s="15">
         <v>24</v>
@@ -5235,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G33" s="15">
         <v>9</v>
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>27</v>
+        <v>259</v>
       </c>
       <c r="G34" s="15">
         <v>4</v>
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G35" s="15">
         <v>7</v>
@@ -5334,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G36" s="15">
         <v>9</v>
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G37" s="15">
         <v>2</v>

--- a/public/gamekpi.xlsx
+++ b/public/gamekpi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\Desafio Excelencia\desafio-excelencia\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F771BB-04D8-4B34-A499-576C93E79EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E6EAFE-251F-4D0A-90B0-669640498903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E98F70-F2BD-4803-AD90-387C3126D71E}"/>
   </bookViews>
@@ -3306,7 +3306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3377,6 +3377,9 @@
     </xf>
     <xf numFmtId="3" fontId="12" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3798,7 +3801,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{ED9B8F0F-E705-4E96-BAFD-AD609D0FC6F6}" name="Tabela2" displayName="Tabela2" ref="A72:D84" totalsRowShown="0" headerRowDxfId="14" tableBorderDxfId="13">
   <autoFilter ref="A72:D84" xr:uid="{ED9B8F0F-E705-4E96-BAFD-AD609D0FC6F6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A73:D84">
-    <sortCondition ref="A72:A84"/>
+    <sortCondition descending="1" ref="D72:D84"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9936172B-F1BA-43B3-8089-5AC84AF775F6}" name="CENTRALIZADORA" dataDxfId="12"/>
@@ -4162,8 +4165,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5890,182 +5893,182 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>761</v>
+        <v>488</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>62</v>
       </c>
       <c r="D73" s="14">
         <f>1000 - SUMIFS('BASE INVERTIDO'!J:J,'BASE INVERTIDO'!I:I,Tabela2[[#This Row],[NOME]])</f>
-        <v>950</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>762</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D74" s="14">
+        <f>1000 - SUMIFS('BASE INVERTIDO'!J:J,'BASE INVERTIDO'!I:I,Tabela2[[#This Row],[NOME]])</f>
+        <v>998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D75" s="14">
+        <f>1000 - SUMIFS('BASE INVERTIDO'!J:J,'BASE INVERTIDO'!I:I,Tabela2[[#This Row],[NOME]])</f>
+        <v>996</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D76" s="14">
+        <f>1000 - SUMIFS('BASE INVERTIDO'!J:J,'BASE INVERTIDO'!I:I,Tabela2[[#This Row],[NOME]])</f>
+        <v>981</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>763</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D77" s="14">
+        <f>1000 - SUMIFS('BASE INVERTIDO'!J:J,'BASE INVERTIDO'!I:I,Tabela2[[#This Row],[NOME]])</f>
+        <v>979</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D78" s="14">
+        <f>1000 - SUMIFS('BASE INVERTIDO'!J:J,'BASE INVERTIDO'!I:I,Tabela2[[#This Row],[NOME]])</f>
+        <v>975</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D79" s="14">
+        <f>1000 - SUMIFS('BASE INVERTIDO'!J:J,'BASE INVERTIDO'!I:I,Tabela2[[#This Row],[NOME]])</f>
+        <v>951</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D80" s="14">
+        <f>1000 - SUMIFS('BASE INVERTIDO'!J:J,'BASE INVERTIDO'!I:I,Tabela2[[#This Row],[NOME]])</f>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B81" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D81" s="14">
+        <f>250 - SUMIFS('BASE INVERTIDO'!J:J,'BASE INVERTIDO'!I:I,Tabela2[[#This Row],[NOME]])</f>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C82" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D82" s="14">
         <f>250 - SUMIFS('BASE INVERTIDO'!J:J,'BASE INVERTIDO'!I:I,Tabela2[[#This Row],[NOME]])</f>
         <v>245</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B83" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D83" s="14">
+        <f>250 - SUMIFS('BASE INVERTIDO'!J:J,'BASE INVERTIDO'!I:I,Tabela2[[#This Row],[NOME]])</f>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C84" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D84" s="14">
         <f>250 - SUMIFS('BASE INVERTIDO'!J:J,'BASE INVERTIDO'!I:I,Tabela2[[#This Row],[NOME]])</f>
         <v>210</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D76" s="14">
-        <f>250 - SUMIFS('BASE INVERTIDO'!J:J,'BASE INVERTIDO'!I:I,Tabela2[[#This Row],[NOME]])</f>
-        <v>248</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D77" s="14">
-        <f>250 - SUMIFS('BASE INVERTIDO'!J:J,'BASE INVERTIDO'!I:I,Tabela2[[#This Row],[NOME]])</f>
-        <v>245</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D78" s="14">
-        <f>1000 - SUMIFS('BASE INVERTIDO'!J:J,'BASE INVERTIDO'!I:I,Tabela2[[#This Row],[NOME]])</f>
-        <v>996</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>762</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D79" s="14">
-        <f>1000 - SUMIFS('BASE INVERTIDO'!J:J,'BASE INVERTIDO'!I:I,Tabela2[[#This Row],[NOME]])</f>
-        <v>998</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>763</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D80" s="14">
-        <f>1000 - SUMIFS('BASE INVERTIDO'!J:J,'BASE INVERTIDO'!I:I,Tabela2[[#This Row],[NOME]])</f>
-        <v>979</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D81" s="14">
-        <f>1000 - SUMIFS('BASE INVERTIDO'!J:J,'BASE INVERTIDO'!I:I,Tabela2[[#This Row],[NOME]])</f>
-        <v>975</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>488</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D82" s="14">
-        <f>1000 - SUMIFS('BASE INVERTIDO'!J:J,'BASE INVERTIDO'!I:I,Tabela2[[#This Row],[NOME]])</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D83" s="14">
-        <f>1000 - SUMIFS('BASE INVERTIDO'!J:J,'BASE INVERTIDO'!I:I,Tabela2[[#This Row],[NOME]])</f>
-        <v>951</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D84" s="14">
-        <f>1000 - SUMIFS('BASE INVERTIDO'!J:J,'BASE INVERTIDO'!I:I,Tabela2[[#This Row],[NOME]])</f>
-        <v>981</v>
       </c>
     </row>
   </sheetData>
